--- a/Immath/bin/Debug/reports/studentr.xlsx
+++ b/Immath/bin/Debug/reports/studentr.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Immath\Immath\bin\Debug\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\immath\Immath\bin\Debug\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>รายงานนักเรียน</t>
   </si>
@@ -439,7 +439,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -561,6 +561,43 @@
         <v>1020</v>
       </c>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42801.435208333336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>42801.437141203707</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H2:I2"/>
